--- a/code/contact_list.xlsx
+++ b/code/contact_list.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JamesDuong\Desktop\send resume\code\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JamesDuong\Desktop\resume\resume_email_automation\code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABB97D0E-00CF-48DC-88AB-C72F5EB509D8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56F034E2-7586-40EE-9F82-0F11094889D7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11940" yWindow="-14355" windowWidth="21600" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29685" yWindow="-14775" windowWidth="8430" windowHeight="10920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
   <si>
     <t>Job Applied For</t>
   </si>
@@ -39,35 +39,65 @@
     <t>Web Site</t>
   </si>
   <si>
+    <t>https://ca.indeed.com/viewjob?cmp=Foley%27s-Candies-LP&amp;t=Sales+Pricing+Analyst&amp;jk=a4f696246a81ed1e&amp;q=Data+Analyst&amp;vjs=3</t>
+  </si>
+  <si>
+    <t>Foley's Candies</t>
+  </si>
+  <si>
+    <t>Sales and Pricing Analyst</t>
+  </si>
+  <si>
+    <t>customerservice@foleyscandies.com</t>
+  </si>
+  <si>
+    <t>data analyst - informatics and systems</t>
+  </si>
+  <si>
+    <t>ClickDishes Inc</t>
+  </si>
+  <si>
+    <t>career@clickdishes.com</t>
+  </si>
+  <si>
+    <t>https://ca.indeed.com/viewjob?jk=0e7c7427bb93122e&amp;tk=1f6oglcm1306s000&amp;from=serp&amp;vjs=3</t>
+  </si>
+  <si>
     <t>Data Analyst</t>
   </si>
   <si>
-    <t>Business Analyst</t>
-  </si>
-  <si>
-    <t>abc</t>
-  </si>
-  <si>
-    <t>cde</t>
-  </si>
-  <si>
-    <t>duonghoanvu.le@gmail.com</t>
-  </si>
-  <si>
-    <t>duonghoanvu1@gmail.com</t>
-  </si>
-  <si>
-    <t>ca.indeed.com</t>
-  </si>
-  <si>
-    <t>glassdoor.com</t>
+    <t>HKJ Marketing</t>
+  </si>
+  <si>
+    <t>info@hkjmarketing.com</t>
+  </si>
+  <si>
+    <t>https://ca.indeed.com/viewjob?jk=2eb9d8f594a1e7f9&amp;q=Data+Analyst&amp;l=Vancouver%2C+BC&amp;tk=1f6ogm402pi1r800&amp;from=web&amp;vjs=3</t>
+  </si>
+  <si>
+    <t>BC Housing</t>
+  </si>
+  <si>
+    <t>hr_admin@bchousing.org</t>
+  </si>
+  <si>
+    <t>https://ca.indeed.com/viewjob?jk=1070920710d67ec5&amp;tk=1f6p1qokro1jk801&amp;from=serp&amp;vjs=3</t>
+  </si>
+  <si>
+    <t>Stitches Creation Inc</t>
+  </si>
+  <si>
+    <t>jobs@scdeco.com</t>
+  </si>
+  <si>
+    <t>linkedin</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -76,19 +106,55 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="Century Gothic"/>
-      <family val="2"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF2D2D2D"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF2B2B2B"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF515151"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3E68A1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF595959"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -152,20 +218,38 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -447,72 +531,133 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="A2" sqref="A2:D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" customWidth="1"/>
-    <col min="3" max="3" width="20" customWidth="1"/>
-    <col min="4" max="4" width="16" customWidth="1"/>
-    <col min="5" max="5" width="10.42578125" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" customWidth="1"/>
-    <col min="7" max="7" width="16.42578125" customWidth="1"/>
-    <col min="8" max="8" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.42578125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="20" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.42578125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="4" t="s">
+    </row>
+    <row r="3" spans="1:4" s="2" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D2" t="s">
+      <c r="B3" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="8" t="s">
         <v>10</v>
       </c>
+      <c r="D3" s="10" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" t="s">
-        <v>11</v>
+    <row r="4" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
+    <row r="5" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" s="2" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A6" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="8" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="9" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="10" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="11" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="12" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="13" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="15" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="16" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="17" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="18" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="19" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="20" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="21" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{C196794A-9E05-446C-B76B-D7599398ABFF}"/>
-    <hyperlink ref="C3" r:id="rId2" xr:uid="{E5FC44A5-A55E-4968-9DF4-E80C6B915EC0}"/>
+    <hyperlink ref="C2" r:id="rId1" display="mailto:%20customerservice@foleyscandies.com" xr:uid="{4989BD18-1B64-4CFC-A73D-DB22D5EC398B}"/>
+    <hyperlink ref="B2" r:id="rId2" display="https://ca.indeed.com/cmp/Foley's-Candies-Lp?campaignid=mobvjcmp&amp;from=mobviewjob&amp;tk=1f6ocllke309m000&amp;fromjk=a4f696246a81ed1e" xr:uid="{96753F87-9F00-49D9-B771-61BEB62EDAC7}"/>
+    <hyperlink ref="C3" r:id="rId3" display="mailto:career@clickdishes.com" xr:uid="{4B294FCA-BDAE-4674-9481-3A87C66392B5}"/>
+    <hyperlink ref="C5" r:id="rId4" display="mailto:hr_admin@bchousing.org" xr:uid="{60B2A065-BC90-4A96-B451-3DF854ED0E6B}"/>
+    <hyperlink ref="C6" r:id="rId5" display="mailto:jobs@scdeco.com" xr:uid="{9CA1F251-5C87-4586-A03E-3FD03989DAFF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>